--- a/data/trans_orig/Q03B_FES-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Edad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8044958086685453</v>
+        <v>0.8035278879904594</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8406589606548797</v>
+        <v>0.8472870315071632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.111828255409472</v>
+        <v>1.115615967531593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.063936776053834</v>
+        <v>2.064003043142351</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.032319662497024</v>
+        <v>2.03784241035721</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.022631323390701</v>
+        <v>2.024415100099581</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.452442611006305</v>
+        <v>1.458077930076601</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.442207459884459</v>
+        <v>1.456779663308595</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.604527415635604</v>
+        <v>1.610324345517091</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.093403370619203</v>
+        <v>1.080810724546984</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.130479520864895</v>
+        <v>1.135296134682956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.404879237903959</v>
+        <v>1.394303450114949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.458441489452788</v>
+        <v>2.449268620059871</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.35876626311627</v>
+        <v>2.358086499661507</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.351275247763227</v>
+        <v>2.363886252753772</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.701465133506541</v>
+        <v>1.718657879337673</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.67180755533114</v>
+        <v>1.671638239444882</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.829839019582335</v>
+        <v>1.824474944484976</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.446110155982805</v>
+        <v>1.4387972798655</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.468399946713354</v>
+        <v>1.456985859646341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.654736809783169</v>
+        <v>1.663676752863298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.292033305353433</v>
+        <v>3.274530525232293</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.137196139655842</v>
+        <v>3.142998296461991</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.248521002567077</v>
+        <v>3.254630894663342</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.325053746509594</v>
+        <v>2.337910549783714</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.272832247426868</v>
+        <v>2.28386330360033</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.464149373464385</v>
+        <v>2.47182032236876</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.776404731905303</v>
+        <v>1.773581561976201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.667180846088686</v>
+        <v>1.661997822438465</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.880316893024323</v>
+        <v>1.881578360282208</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.646086218196428</v>
+        <v>3.647469832709965</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.474708196743149</v>
+        <v>3.500433512994868</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.637351110149668</v>
+        <v>3.637228807919386</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.591445938079949</v>
+        <v>2.604653373880782</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.500914994052077</v>
+        <v>2.497954429164705</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.701041152440429</v>
+        <v>2.706065898308806</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.396789136233028</v>
+        <v>1.389714333222956</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.718651975274935</v>
+        <v>1.711351141957141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.961589815770712</v>
+        <v>1.957145986204454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.056035712002203</v>
+        <v>4.062663009666321</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.816990277278026</v>
+        <v>3.806345000599682</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.770078313140329</v>
+        <v>3.765834944819788</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.793769157773673</v>
+        <v>2.78723920541195</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.803513229855521</v>
+        <v>2.819755919278691</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.882434528679321</v>
+        <v>2.880345113326316</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.658584660876752</v>
+        <v>1.648457940873703</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.991895209363385</v>
+        <v>1.987591385604005</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.195454422214377</v>
+        <v>2.186795799531984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.42368080684547</v>
+        <v>4.427976680762909</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.160137042942011</v>
+        <v>4.147455588161101</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.099572298166329</v>
+        <v>4.077199830683526</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.071679366494012</v>
+        <v>3.06250418076962</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.065130533311625</v>
+        <v>3.07819613395023</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.121100012997071</v>
+        <v>3.106966212637738</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.508932980264553</v>
+        <v>1.506189066199695</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.512752183597875</v>
+        <v>1.510719051515789</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.781221986829176</v>
+        <v>1.772421509460124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.050102621463775</v>
+        <v>4.065883140219435</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.834045303439366</v>
+        <v>3.793670282445995</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.714840809158486</v>
+        <v>3.716308133399108</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.813026548794083</v>
+        <v>2.818238343927518</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.705946557488641</v>
+        <v>2.715948179782788</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.794291211958456</v>
+        <v>2.799450697948292</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.939398425376625</v>
+        <v>1.931371908077619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.776903023095365</v>
+        <v>1.780877645559969</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.079946947157998</v>
+        <v>2.077422135530133</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.494719631983795</v>
+        <v>4.505943474610081</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.213507095768253</v>
+        <v>4.188528803276347</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.038628692356593</v>
+        <v>4.0192867693687</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.159962672969925</v>
+        <v>3.168983089201733</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.97939245047278</v>
+        <v>2.979952550774956</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.040824037729003</v>
+        <v>3.042346742792576</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.133011700813861</v>
+        <v>1.155612461133346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.275844362244271</v>
+        <v>1.275747206864836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.511831640948313</v>
+        <v>1.520794287946963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.766588137056635</v>
+        <v>3.785087893155887</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.669788807328784</v>
+        <v>3.687518548526881</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.462973655678979</v>
+        <v>3.472480714498021</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.529955943839989</v>
+        <v>2.523676563622377</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.522771199978424</v>
+        <v>2.539725695206112</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.556243970479994</v>
+        <v>2.559966990901477</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.579173887401291</v>
+        <v>1.614022625588909</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.595296980368127</v>
+        <v>1.620744684777299</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.819816412137131</v>
+        <v>1.827677702551947</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.265560640208523</v>
+        <v>4.264430930655112</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.136512355091383</v>
+        <v>4.169572381508963</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.860626650077195</v>
+        <v>3.870925573509135</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.904485930273619</v>
+        <v>2.909888572633688</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.865927321702483</v>
+        <v>2.891549088851284</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.853573100604659</v>
+        <v>2.84271851300518</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9794382908725795</v>
+        <v>0.9889785410602869</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.158164341894362</v>
+        <v>1.166538158601594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.356911740402058</v>
+        <v>1.346109903100356</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.014275517242694</v>
+        <v>3.033663782996424</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.937512268737644</v>
+        <v>2.950421284901208</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.13705336242066</v>
+        <v>3.149384401456176</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.127470120067198</v>
+        <v>2.109190759493417</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.147028181642352</v>
+        <v>2.166892401301761</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.369780745541244</v>
+        <v>2.351270874325376</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.37958917510995</v>
+        <v>1.367638455406539</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.60304789291555</v>
+        <v>1.602337496440747</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.714734107655482</v>
+        <v>1.694234395236925</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.476714533290668</v>
+        <v>3.502828688197216</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.404988916924308</v>
+        <v>3.406541330147806</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.601434116650092</v>
+        <v>3.628047103007439</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.475362650117513</v>
+        <v>2.457114552506653</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.49347806293095</v>
+        <v>2.518231907883302</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.690727325330181</v>
+        <v>2.675675857881456</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8576434639346565</v>
+        <v>0.870063957620449</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9035237374903556</v>
+        <v>0.9084790230079997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.035893771837689</v>
+        <v>1.031565625296315</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.379049978249449</v>
+        <v>2.360653540394084</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.924910209605789</v>
+        <v>1.923079971872741</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.303925468438051</v>
+        <v>2.334932017465158</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.833930151680456</v>
+        <v>1.84828967199806</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.569602954933097</v>
+        <v>1.572110422999608</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.844723597114403</v>
+        <v>1.860003879276991</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.290970482946485</v>
+        <v>1.30872662728736</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.29490619559494</v>
+        <v>1.310097040877521</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.329981422697345</v>
+        <v>1.340567673932465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.00684490379507</v>
+        <v>2.966055565016498</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.351472168398191</v>
+        <v>2.341667606828654</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.797407062949653</v>
+        <v>2.787617832371006</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.264240681580227</v>
+        <v>2.281231083111344</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.879552292953052</v>
+        <v>1.868856777649677</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.177868509929509</v>
+        <v>2.18901097002531</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.330327135719688</v>
+        <v>1.326867221628234</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.428548374303939</v>
+        <v>1.433106770451055</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.645638228192951</v>
+        <v>1.650219788829972</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.454378516006998</v>
+        <v>3.46057966943599</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.290248245080118</v>
+        <v>3.289554788369473</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.317441615313623</v>
+        <v>3.317365681875129</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.426104290587473</v>
+        <v>2.425791652793555</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.394038190498093</v>
+        <v>2.393633520203317</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.528315444357102</v>
+        <v>2.524067431344988</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.4599589158911</v>
+        <v>1.467558949277577</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.536635394008077</v>
+        <v>1.544762673407761</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.76123066056227</v>
+        <v>1.759940973633139</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.624379279829052</v>
+        <v>3.627129492211294</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.447643114162893</v>
+        <v>3.43768838461219</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.462577036557517</v>
+        <v>3.470328699680549</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.551039140453277</v>
+        <v>2.550698753374701</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.505080162974613</v>
+        <v>2.496274346364142</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.632803802593389</v>
+        <v>2.634575017866537</v>
       </c>
     </row>
     <row r="28">
